--- a/DataTable/功能表.xlsx
+++ b/DataTable/功能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="8820"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
   <si>
     <t>ALL</t>
   </si>
@@ -102,6 +102,9 @@
     <t>可否购买</t>
   </si>
   <si>
+    <t>上架权重</t>
+  </si>
+  <si>
     <t>售卖数量</t>
   </si>
   <si>
@@ -147,7 +150,7 @@
     <t>生命值</t>
   </si>
   <si>
-    <t>1,3</t>
+    <t>1,2</t>
   </si>
   <si>
     <t>ZY#0109</t>
@@ -156,7 +159,7 @@
     <t>金币</t>
   </si>
   <si>
-    <t>25,50</t>
+    <t>15,35</t>
   </si>
   <si>
     <t>SP#0101</t>
@@ -168,7 +171,10 @@
     <t>1,1</t>
   </si>
   <si>
-    <t>5,18</t>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>20,30</t>
   </si>
   <si>
     <t>SP#0102</t>
@@ -624,7 +630,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -709,7 +715,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -724,9 +730,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -742,7 +746,7 @@
       <right style="medium">
         <color auto="1"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -752,7 +756,24 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -763,11 +784,13 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -776,7 +799,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -791,6 +814,32 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -911,7 +960,7 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -941,7 +990,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -959,28 +1008,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -989,10 +1038,10 @@
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1050,7 +1099,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1141,67 +1190,82 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1531,21 +1595,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="13" width="11.7777777777778" style="1" customWidth="1"/>
-    <col min="14" max="14" width="11.7777777777778" style="2" customWidth="1"/>
-    <col min="15" max="16" width="11.7777777777778" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88888888888889" style="3"/>
+    <col min="1" max="14" width="11.7777777777778" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.7777777777778" style="2" customWidth="1"/>
+    <col min="16" max="17" width="11.7777777777778" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88888888888889" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:17">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1573,29 +1637,32 @@
       <c r="I1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="27" t="s">
+      <c r="J1" s="28" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="M1" s="28" t="s">
+      <c r="L1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="M1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="27" t="s">
+      <c r="O1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" s="29" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:17">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1604,16 +1671,17 @@
       <c r="F2" s="4"/>
       <c r="G2" s="5"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5"/>
       <c r="K2" s="7"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="29"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="31"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:17">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1638,32 +1706,35 @@
       <c r="H3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="L3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="P3" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:17">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1688,10 +1759,10 @@
       <c r="H4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="10" t="s">
@@ -1703,25 +1774,28 @@
       <c r="M4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O4" s="10" t="s">
+      <c r="O4" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="P4" s="31" t="s">
+      <c r="P4" s="34" t="s">
         <v>20</v>
       </c>
+      <c r="Q4" s="33" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:17">
       <c r="A5" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" s="11">
         <v>1</v>
@@ -1732,26 +1806,27 @@
       <c r="H5" s="13">
         <v>0</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="33"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="13">
         <v>0</v>
       </c>
       <c r="L5" s="11"/>
       <c r="M5" s="11"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="33"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="50"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:17">
       <c r="A6" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="11">
         <v>1</v>
@@ -1762,26 +1837,27 @@
       <c r="H6" s="13">
         <v>0</v>
       </c>
-      <c r="I6" s="32"/>
-      <c r="J6" s="33"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
       <c r="K6" s="13">
         <v>0</v>
       </c>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="34"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="33"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="50"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:17">
       <c r="A7" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="11">
         <v>1</v>
@@ -1792,26 +1868,27 @@
       <c r="H7" s="13">
         <v>0</v>
       </c>
-      <c r="I7" s="32"/>
-      <c r="J7" s="33"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="12"/>
       <c r="K7" s="13">
         <v>0</v>
       </c>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="34"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="33"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="50"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:17">
       <c r="A8" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
@@ -1822,26 +1899,27 @@
       <c r="H8" s="13">
         <v>0</v>
       </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="33"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="12"/>
       <c r="K8" s="13">
         <v>0</v>
       </c>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="33"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="50"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="14">
         <v>1</v>
@@ -1852,30 +1930,33 @@
       <c r="H9" s="16">
         <v>0</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="36"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="16">
         <v>1</v>
       </c>
-      <c r="L9" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="M9" s="14">
-        <v>100</v>
-      </c>
-      <c r="N9" s="37"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="36"/>
+      <c r="L9" s="14">
+        <v>12</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="37">
+        <v>125125</v>
+      </c>
+      <c r="O9" s="38"/>
+      <c r="P9" s="39"/>
+      <c r="Q9" s="51"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:17">
       <c r="A10" s="17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
@@ -1886,30 +1967,31 @@
       <c r="H10" s="19">
         <v>1</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I10" s="17">
         <v>50</v>
       </c>
-      <c r="J10" s="39" t="s">
-        <v>34</v>
+      <c r="J10" s="18" t="s">
+        <v>35</v>
       </c>
       <c r="K10" s="19">
         <v>0</v>
       </c>
       <c r="L10" s="17"/>
       <c r="M10" s="17"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="39"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="52"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:17">
       <c r="A11" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="20">
         <v>2</v>
@@ -1920,40 +2002,43 @@
       <c r="H11" s="22">
         <v>1</v>
       </c>
-      <c r="I11" s="41">
+      <c r="I11" s="20">
         <v>10</v>
       </c>
-      <c r="J11" s="42" t="s">
-        <v>37</v>
+      <c r="J11" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="K11" s="22">
         <v>1</v>
       </c>
-      <c r="L11" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="20">
-        <v>60</v>
-      </c>
-      <c r="N11" s="43">
+      <c r="L11" s="20">
+        <v>22</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O11" s="42">
         <v>3</v>
       </c>
-      <c r="O11" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="42">
+      <c r="P11" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:17">
       <c r="A12" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" s="20">
         <v>2</v>
@@ -1964,40 +2049,43 @@
       <c r="H12" s="22">
         <v>1</v>
       </c>
-      <c r="I12" s="41">
+      <c r="I12" s="20">
         <v>10</v>
       </c>
-      <c r="J12" s="42" t="s">
-        <v>37</v>
+      <c r="J12" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="K12" s="22">
         <v>1</v>
       </c>
-      <c r="L12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="20">
-        <v>60</v>
-      </c>
-      <c r="N12" s="43">
+      <c r="L12" s="20">
+        <v>22</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O12" s="42">
         <v>3</v>
       </c>
-      <c r="O12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="P12" s="42">
+      <c r="P12" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:17">
       <c r="A13" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D13" s="20">
         <v>2</v>
@@ -2008,40 +2096,43 @@
       <c r="H13" s="22">
         <v>1</v>
       </c>
-      <c r="I13" s="41">
+      <c r="I13" s="20">
         <v>10</v>
       </c>
-      <c r="J13" s="42" t="s">
-        <v>37</v>
+      <c r="J13" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="K13" s="22">
         <v>1</v>
       </c>
-      <c r="L13" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="20">
-        <v>60</v>
-      </c>
-      <c r="N13" s="43">
+      <c r="L13" s="20">
+        <v>22</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13" s="42">
         <v>3</v>
       </c>
-      <c r="O13" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="P13" s="42">
+      <c r="P13" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q13" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:17">
       <c r="A14" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D14" s="20">
         <v>2</v>
@@ -2052,40 +2143,43 @@
       <c r="H14" s="22">
         <v>1</v>
       </c>
-      <c r="I14" s="41">
+      <c r="I14" s="20">
         <v>10</v>
       </c>
-      <c r="J14" s="42" t="s">
-        <v>37</v>
+      <c r="J14" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="K14" s="22">
         <v>1</v>
       </c>
-      <c r="L14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" s="20">
-        <v>60</v>
-      </c>
-      <c r="N14" s="43">
+      <c r="L14" s="20">
+        <v>22</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O14" s="42">
         <v>3</v>
       </c>
-      <c r="O14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P14" s="42">
+      <c r="P14" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="53">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:17">
       <c r="A15" s="23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15" s="23">
         <v>3</v>
@@ -2096,26 +2190,27 @@
       <c r="H15" s="25">
         <v>0</v>
       </c>
-      <c r="I15" s="44"/>
-      <c r="J15" s="45"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
       <c r="K15" s="25">
         <v>0</v>
       </c>
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
-      <c r="N15" s="46"/>
-      <c r="O15" s="25"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="44"/>
       <c r="P15" s="45"/>
+      <c r="Q15" s="54"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:17">
       <c r="A16" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="23">
         <v>3</v>
@@ -2126,26 +2221,27 @@
       <c r="H16" s="25">
         <v>0</v>
       </c>
-      <c r="I16" s="44"/>
-      <c r="J16" s="45"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
       <c r="K16" s="25">
         <v>0</v>
       </c>
       <c r="L16" s="23"/>
       <c r="M16" s="23"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="25"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="44"/>
       <c r="P16" s="45"/>
+      <c r="Q16" s="54"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:17">
       <c r="A17" s="23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="23">
         <v>3</v>
@@ -2156,26 +2252,27 @@
       <c r="H17" s="25">
         <v>0</v>
       </c>
-      <c r="I17" s="44"/>
-      <c r="J17" s="45"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
       <c r="K17" s="25">
         <v>0</v>
       </c>
       <c r="L17" s="23"/>
       <c r="M17" s="23"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="25"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="44"/>
       <c r="P17" s="45"/>
+      <c r="Q17" s="54"/>
     </row>
-    <row r="18" ht="16.35" spans="1:16">
+    <row r="18" ht="16.35" spans="1:17">
       <c r="A18" s="23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="23">
         <v>3</v>
@@ -2186,16 +2283,17 @@
       <c r="H18" s="26">
         <v>0</v>
       </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
       <c r="K18" s="26">
         <v>0</v>
       </c>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="48"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="49"/>
+      <c r="Q18" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DataTable/功能表.xlsx
+++ b/DataTable/功能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubCangKu\GQLX\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AD0BF8-3C31-47D6-9468-501B5DB3EFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05569E46-EAB8-463E-839F-34F44D8B4606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="80">
   <si>
     <t>ALL</t>
   </si>
@@ -150,162 +150,180 @@
     <t>幸运值</t>
   </si>
   <si>
+    <t>生命值</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>金币</t>
+  </si>
+  <si>
+    <t>15,35</t>
+  </si>
+  <si>
+    <t>SP#0101</t>
+  </si>
+  <si>
+    <t>力量碎片</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>2,5</t>
+  </si>
+  <si>
+    <t>20,30</t>
+  </si>
+  <si>
+    <t>SP#0102</t>
+  </si>
+  <si>
+    <t>敏捷碎片</t>
+  </si>
+  <si>
+    <t>SP#0103</t>
+  </si>
+  <si>
+    <t>智力碎片</t>
+  </si>
+  <si>
+    <t>SP#0104</t>
+  </si>
+  <si>
+    <t>幸运碎片</t>
+  </si>
+  <si>
+    <t>TJ#0101</t>
+  </si>
+  <si>
+    <t>狼骨头套</t>
+  </si>
+  <si>
+    <t>TJ#0102</t>
+  </si>
+  <si>
+    <t>雕像</t>
+  </si>
+  <si>
+    <t>TJ#0103</t>
+  </si>
+  <si>
+    <t>合影</t>
+  </si>
+  <si>
+    <t>TJ#0104</t>
+  </si>
+  <si>
+    <t>钥匙</t>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>remarks</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>describe</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>picture</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDrop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>weightDrop</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropQuantity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>isBuy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>putOnWeight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>salesQuantity</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>coinPrice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>slicePrice</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>conversionRatio</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>addAttribute</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZY#0101</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZY#0102</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZY#0103</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZY#0104</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>HP</t>
-  </si>
-  <si>
-    <t>生命值</t>
-  </si>
-  <si>
-    <t>1,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>ZY#0109</t>
-  </si>
-  <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>15,35</t>
-  </si>
-  <si>
-    <t>SP#0101</t>
-  </si>
-  <si>
-    <t>力量碎片</t>
-  </si>
-  <si>
-    <t>1,1</t>
-  </si>
-  <si>
-    <t>2,5</t>
-  </si>
-  <si>
-    <t>20,30</t>
-  </si>
-  <si>
-    <t>SP#0102</t>
-  </si>
-  <si>
-    <t>敏捷碎片</t>
-  </si>
-  <si>
-    <t>SP#0103</t>
-  </si>
-  <si>
-    <t>智力碎片</t>
-  </si>
-  <si>
-    <t>SP#0104</t>
-  </si>
-  <si>
-    <t>幸运碎片</t>
-  </si>
-  <si>
-    <t>TJ#0101</t>
-  </si>
-  <si>
-    <t>狼骨头套</t>
-  </si>
-  <si>
-    <t>TJ#0102</t>
-  </si>
-  <si>
-    <t>雕像</t>
-  </si>
-  <si>
-    <t>TJ#0103</t>
-  </si>
-  <si>
-    <t>合影</t>
-  </si>
-  <si>
-    <t>TJ#0104</t>
-  </si>
-  <si>
-    <t>钥匙</t>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>remarks</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>describe</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>picture</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDrop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>weightDrop</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dropQuantity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>isBuy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>putOnWeight</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>salesQuantity</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>coinPrice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>slicePrice</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>conversionRatio</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>addAttribute</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>value</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>值</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -626,7 +644,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -811,6 +829,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1098,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1175,69 +1202,69 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="D2" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="E2" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="F2" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="56" t="s">
+      <c r="G2" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="56" t="s">
+      <c r="H2" s="58" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="I2" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="58" t="s">
+      <c r="J2" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="56" t="s">
+      <c r="K2" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="J2" s="57" t="s">
+      <c r="L2" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="K2" s="58" t="s">
+      <c r="M2" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="L2" s="56" t="s">
+      <c r="N2" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="M2" s="56" t="s">
+      <c r="O2" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="N2" s="56" t="s">
+      <c r="P2" s="60" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q2" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="59" t="s">
-        <v>71</v>
-      </c>
-      <c r="P2" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q2" s="59" t="s">
+      <c r="R2" s="59" t="s">
         <v>72</v>
-      </c>
-      <c r="R2" s="59" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>2</v>
@@ -1246,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>2</v>
@@ -1258,7 +1285,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="57" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>3</v>
@@ -1282,7 +1309,7 @@
         <v>3</v>
       </c>
       <c r="R3" s="59" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -1338,12 +1365,12 @@
         <v>21</v>
       </c>
       <c r="R4" s="61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="11" t="s">
-        <v>22</v>
+      <c r="A5" s="62" t="s">
+        <v>74</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>23</v>
@@ -1374,8 +1401,8 @@
       <c r="R5" s="50"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A6" s="11" t="s">
-        <v>24</v>
+      <c r="A6" s="62" t="s">
+        <v>75</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>25</v>
@@ -1406,8 +1433,8 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A7" s="11" t="s">
-        <v>26</v>
+      <c r="A7" s="62" t="s">
+        <v>76</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>27</v>
@@ -1438,8 +1465,8 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="11" t="s">
-        <v>28</v>
+      <c r="A8" s="62" t="s">
+        <v>77</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>29</v>
@@ -1470,14 +1497,14 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="63" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>31</v>
-      </c>
       <c r="C9" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="14">
         <v>1</v>
@@ -1497,7 +1524,7 @@
         <v>12</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N9" s="37">
         <v>125125</v>
@@ -1508,14 +1535,14 @@
       <c r="R9" s="51"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A10" s="17" t="s">
-        <v>33</v>
+      <c r="A10" s="64" t="s">
+        <v>79</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
@@ -1530,7 +1557,7 @@
         <v>50</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K10" s="19">
         <v>0</v>
@@ -1545,13 +1572,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="20">
         <v>2</v>
@@ -1566,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K11" s="22">
         <v>1</v>
@@ -1575,10 +1602,10 @@
         <v>22</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O11" s="42">
         <v>3</v>
@@ -1593,13 +1620,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="20">
         <v>2</v>
@@ -1614,7 +1641,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K12" s="22">
         <v>1</v>
@@ -1623,10 +1650,10 @@
         <v>22</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N12" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O12" s="42">
         <v>3</v>
@@ -1641,13 +1668,13 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="20">
         <v>2</v>
@@ -1662,7 +1689,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K13" s="22">
         <v>1</v>
@@ -1671,10 +1698,10 @@
         <v>22</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N13" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O13" s="42">
         <v>3</v>
@@ -1689,13 +1716,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D14" s="20">
         <v>2</v>
@@ -1710,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K14" s="22">
         <v>1</v>
@@ -1719,10 +1746,10 @@
         <v>22</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N14" s="20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="O14" s="42">
         <v>3</v>
@@ -1737,13 +1764,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15" s="23">
         <v>3</v>
@@ -1769,13 +1796,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="23">
         <v>3</v>
@@ -1801,13 +1828,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D17" s="23">
         <v>3</v>
@@ -1833,13 +1860,13 @@
     </row>
     <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" s="23">
         <v>3</v>

--- a/DataTable/功能表.xlsx
+++ b/DataTable/功能表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubCangKu\GQLX\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05569E46-EAB8-463E-839F-34F44D8B4606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48AD0BF8-3C31-47D6-9468-501B5DB3EFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
   <si>
     <t>ALL</t>
   </si>
@@ -150,12 +150,18 @@
     <t>幸运值</t>
   </si>
   <si>
+    <t>HP</t>
+  </si>
+  <si>
     <t>生命值</t>
   </si>
   <si>
     <t>1,2</t>
   </si>
   <si>
+    <t>ZY#0109</t>
+  </si>
+  <si>
     <t>金币</t>
   </si>
   <si>
@@ -300,30 +306,6 @@
   </si>
   <si>
     <t>值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZY#0101</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZY#0102</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZY#0103</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZY#0104</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ZY#0109</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -644,7 +626,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,15 +811,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1125,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1202,69 +1175,69 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A2" s="56" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G2" s="57" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H2" s="58" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J2" s="57" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K2" s="58" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L2" s="56" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="M2" s="56" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N2" s="56" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="O2" s="59" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P2" s="60" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="59" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R2" s="59" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A3" s="56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>2</v>
@@ -1273,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="56" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>2</v>
@@ -1285,7 +1258,7 @@
         <v>3</v>
       </c>
       <c r="J3" s="57" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K3" s="7" t="s">
         <v>3</v>
@@ -1309,7 +1282,7 @@
         <v>3</v>
       </c>
       <c r="R3" s="59" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.15">
@@ -1365,12 +1338,12 @@
         <v>21</v>
       </c>
       <c r="R4" s="61" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A5" s="62" t="s">
-        <v>74</v>
+      <c r="A5" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>23</v>
@@ -1401,8 +1374,8 @@
       <c r="R5" s="50"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A6" s="62" t="s">
-        <v>75</v>
+      <c r="A6" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>25</v>
@@ -1433,8 +1406,8 @@
       <c r="R6" s="50"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A7" s="62" t="s">
-        <v>76</v>
+      <c r="A7" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>27</v>
@@ -1465,8 +1438,8 @@
       <c r="R7" s="50"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A8" s="62" t="s">
-        <v>77</v>
+      <c r="A8" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>29</v>
@@ -1497,14 +1470,14 @@
       <c r="R8" s="50"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A9" s="63" t="s">
-        <v>78</v>
+      <c r="A9" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D9" s="14">
         <v>1</v>
@@ -1524,7 +1497,7 @@
         <v>12</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N9" s="37">
         <v>125125</v>
@@ -1535,14 +1508,14 @@
       <c r="R9" s="51"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A10" s="64" t="s">
-        <v>79</v>
+      <c r="A10" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
@@ -1557,7 +1530,7 @@
         <v>50</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K10" s="19">
         <v>0</v>
@@ -1572,13 +1545,13 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A11" s="20" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D11" s="20">
         <v>2</v>
@@ -1593,7 +1566,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K11" s="22">
         <v>1</v>
@@ -1602,10 +1575,10 @@
         <v>22</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O11" s="42">
         <v>3</v>
@@ -1620,13 +1593,13 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D12" s="20">
         <v>2</v>
@@ -1641,7 +1614,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K12" s="22">
         <v>1</v>
@@ -1650,10 +1623,10 @@
         <v>22</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N12" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O12" s="42">
         <v>3</v>
@@ -1668,13 +1641,13 @@
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D13" s="20">
         <v>2</v>
@@ -1689,7 +1662,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K13" s="22">
         <v>1</v>
@@ -1698,10 +1671,10 @@
         <v>22</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N13" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O13" s="42">
         <v>3</v>
@@ -1716,13 +1689,13 @@
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A14" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D14" s="20">
         <v>2</v>
@@ -1737,7 +1710,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K14" s="22">
         <v>1</v>
@@ -1746,10 +1719,10 @@
         <v>22</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N14" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O14" s="42">
         <v>3</v>
@@ -1764,13 +1737,13 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B15" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15" s="23">
         <v>3</v>
@@ -1796,13 +1769,13 @@
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B16" s="23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="23">
         <v>3</v>
@@ -1828,13 +1801,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A17" s="23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="23">
         <v>3</v>
@@ -1860,13 +1833,13 @@
     </row>
     <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="23">
         <v>3</v>
